--- a/doc/ue_streamablemanager.xlsx
+++ b/doc/ue_streamablemanager.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="流程" sheetId="2" r:id="rId2"/>
+    <sheet name="FSoftObjectPath+FSoftObjectPtr" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="135">
   <si>
     <t>FStreamableHandle</t>
   </si>
@@ -245,14 +246,296 @@
   </si>
   <si>
     <t>保存其加载的资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就是一个资源的路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构造方法，传入资源名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paper2DCategory.Texture = FSoftObjectPath("/Paper2D/Tutorial/Paper2D/TutorialAssets/Paper2DSprite_TutorialIcon.Paper2DSprite_TutorialIcon");</t>
+  </si>
+  <si>
+    <t>获取对象（当对象加载完毕之后，调用该函数获取对应的Obj对象，原理就是按照名字去查询）：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UObject* FSoftObjectPath::ResolveObject() const</t>
+  </si>
+  <si>
+    <t>UObject* FSoftObjectPath::ResolveObjectInternal() const</t>
+  </si>
+  <si>
+    <t>UObject* FSoftObjectPath::ResolveObjectInternal(const TCHAR* PathString) const</t>
+  </si>
+  <si>
+    <t>注意看，内部的实现原理就是按照名字去查找对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在FUObjectHashTables&amp; ThreadHash = FUObjectHashTables::Get();里面查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UObject* FoundObject = FindObject&lt;UObject&gt;(nullptr, PathString);</t>
+  </si>
+  <si>
+    <t>一个Uobject的弱指针，也包含了FSoftObjectPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>struct FSoftObjectPtr : public TPersistentObjectPtr&lt;FSoftObjectPath&gt;</t>
+  </si>
+  <si>
+    <t>继承自TPersistentObjectPtr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过FSoftObjectPath构造一个FSoftObjectPtr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">FSoftObjectPtr SoftObjPtr = FSoftObjectPtr(AssetItem); //此处也可用 TSoftObjectPtr&lt;T&gt; </t>
+  </si>
+  <si>
+    <r>
+      <t>SoftObjPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>函数其实就是调用了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>AssetItem.ResolveObject()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取对象</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UStaticMesh* mesh = Cast&lt;UStaticMesh&gt;(SoftObjPtr.Get()); </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UImage::RequestAsyncLoad(TSoftObjectPtr&lt;UObject&gt; SoftObject, FStreamableDelegate DelegateToCall)</t>
+  </si>
+  <si>
+    <t>TWeakObjectPtr&lt;UImage&gt; WeakThis(this);</t>
+  </si>
+  <si>
+    <t>StreamingObjectPath = SoftObject.ToSoftObjectPath();</t>
+  </si>
+  <si>
+    <t>StreamingHandle = UAssetManager::GetStreamableManager().RequestAsyncLoad(</t>
+  </si>
+  <si>
+    <t>StreamingObjectPath,</t>
+  </si>
+  <si>
+    <t>[WeakThis, DelegateToCall, SoftObject]() {</t>
+  </si>
+  <si>
+    <t>if (UImage* StrongThis = WeakThis.Get())</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>// If the object paths don't match, then this delegate was interrupted, but had already been queued for a callback</t>
+  </si>
+  <si>
+    <t>// so ignore everything and abort.</t>
+  </si>
+  <si>
+    <t>if (StrongThis-&gt;StreamingObjectPath != SoftObject.ToSoftObjectPath())</t>
+  </si>
+  <si>
+    <t>return; // Abort!</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>// Call the delegate to do whatever is needed, probably set the new image.</t>
+  </si>
+  <si>
+    <t>DelegateToCall.ExecuteIfBound();</t>
+  </si>
+  <si>
+    <t>// Note that the streaming has completed.</t>
+  </si>
+  <si>
+    <t>StrongThis-&gt;OnImageStreamingComplete(SoftObject);</t>
+  </si>
+  <si>
+    <t>},</t>
+  </si>
+  <si>
+    <t>FStreamableManager::AsyncLoadHighPriority);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// 单文件加载 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPROPERTY(EditAnywhere, Category = "SoftObjectPath", meta = (AllowedClasses = "StaticMesh")) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSoftObjectPath SingeleObject; </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UFUNCTION() </t>
+  </si>
+  <si>
+    <t xml:space="preserve">void OnSingleAssetLoadFinshed(); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">// 要回调的函数 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">void ALoadActor::OnSingleAssetLoadFinshed() </t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FSoftObjectPtr SoftObjPtr = FSoftObjectPtr(SingeleObject); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    UStaticMesh* mesh = Cast&lt;UStaticMesh&gt;(SoftObjPtr.Get()); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if (mesh) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    { </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        UE_LOG(LogTemp, Warning, TEXT("mesh name:%s"), *mesh-&gt;GetName()); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    } </t>
+  </si>
+  <si>
+    <t xml:space="preserve">} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">// 函数内部分语句 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FStreamableManager&amp; streamableManager = UAssetManager::GetStreamableManager(); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FStreamableDelegate streamableDelegate = FStreamableDelegate::CreateUObject(this, &amp;ALoadActor::OnSingleAssetLoadFinshed); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">streamableManager.RequestAsyncLoad(SingeleObject, streamableDelegate);  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">// 多文件加载 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPROPERTY(EditAnywhere, Category="SoftObjectPath", meta = (AllowedClasses = "StaticMesh")) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TArray&lt;FSoftObjectPath&gt; ObjectList; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">void OnMultiAssetsLoadFinshed(); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">void ALoadActor::OnMultiAssetsLoadFinshed() </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    for (auto AssetItem : ObjectList) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        FSoftObjectPtr SoftObjPtr = FSoftObjectPtr(AssetItem); //此处也可用 TSoftObjectPtr&lt;T&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        UStaticMesh* mesh = Cast&lt;UStaticMesh&gt;(SoftObjPtr.Get()); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if (mesh) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        { </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            UE_LOG(LogTemp, Warning, TEXT("mesh name:%s"), *mesh-&gt;GetName()); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        } </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FStreamableDelegate streamableDelegate = FStreamableDelegate::CreateUObject(this, &amp;ALoadActor::OnMultiAssetsLoadFinshed); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">streamableManager.RequestAsyncLoad(ObjectList, streamableDelegate); </t>
+  </si>
+  <si>
+    <t>FSoftObjectPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSoftObjectPtr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,13 +574,47 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF121212"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F6F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -312,7 +629,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -323,6 +640,17 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -605,7 +933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -643,7 +971,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -699,7 +1027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="2:3" ht="57" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
         <v>5</v>
       </c>
@@ -718,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A9:H50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -733,11 +1061,11 @@
     <col min="7" max="13" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="10" t="s">
         <v>59</v>
       </c>
     </row>
@@ -756,7 +1084,7 @@
       <c r="D12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -764,7 +1092,7 @@
       <c r="D13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -778,7 +1106,7 @@
       <c r="F15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -838,7 +1166,7 @@
       <c r="D29" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -863,15 +1191,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E33" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="H33" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E34" t="s">
         <v>46</v>
       </c>
@@ -879,7 +1210,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E35" t="s">
         <v>49</v>
       </c>
@@ -887,7 +1218,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E36" t="s">
         <v>48</v>
       </c>
@@ -895,7 +1226,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E37" t="s">
         <v>52</v>
       </c>
@@ -922,6 +1253,495 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:M122"/>
+  <sheetViews>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="M117" sqref="M117"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D9" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E13" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E14" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>2</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B19" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B20" s="7"/>
+      <c r="C20" t="s">
+        <v>73</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B21" s="7"/>
+      <c r="D21" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D22" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D23" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D24" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="G43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="G44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="G45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="G46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="H47" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="G48" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G50" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G51" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G53" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G54" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E56" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B70" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C71" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C72" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C73" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C74" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C75" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C76" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C77" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C78" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C79" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C80" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C81" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C82" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C83" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C84" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C85" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C86" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C87" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C88" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C89" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C90" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C91" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B98" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C99" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C100" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C101" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C102" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C103" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C104" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C105" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C106" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C107" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C108" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C109" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C110" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C111" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C112" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C113" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C114" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C115" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C116" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C117" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C118" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C119" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C120" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C121" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C122" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/ue_streamablemanager.xlsx
+++ b/doc/ue_streamablemanager.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3D462E-AE03-455A-91F1-A15C209163CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="流程" sheetId="2" r:id="rId2"/>
-    <sheet name="FSoftObjectPath+FSoftObjectPtr" sheetId="3" r:id="rId3"/>
+    <sheet name="主线程调度" sheetId="4" r:id="rId3"/>
+    <sheet name="示例代码" sheetId="3" r:id="rId4"/>
+    <sheet name="切换场景时资源不释放问题" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="146">
   <si>
     <t>FStreamableHandle</t>
   </si>
@@ -530,11 +533,50 @@
     <t>！！！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>底层还是用到了AsyncLoading，然后设置回调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void Tick(float DeltaTime) override</t>
+  </si>
+  <si>
+    <t>void UGameEngine::Tick( float DeltaSeconds, bool bIdleMode )</t>
+  </si>
+  <si>
+    <t>FTickableGameObject::TickObjects(nullptr, LEVELTICK_All, false, DeltaSeconds);</t>
+  </si>
+  <si>
+    <t>void FTickableGameObject::TickObjects(UWorld* World, const int32 InTickType, const bool bIsPaused, const float DeltaSeconds)</t>
+  </si>
+  <si>
+    <t>加载完成的回调机制，是在TICK的时候调度到我们的回调里面的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FStreamableDelegateDelayHelper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StreamManager发起异步加载，其完成事件回调是Streamhandle，将事件插入到FStreamableDelegateDelayHelper，等待每帧的时候FStreamableDelegateDelayHelper::Tick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static FStreamableDelegateDelayHelper* StreamableDelegateDelayHelper = nullptr;</t>
+  </si>
+  <si>
+    <t>全局唯一对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TICK调度过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -930,11 +972,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:C50"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -955,6 +997,11 @@
         <v>60</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
@@ -1043,10 +1090,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A9:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
@@ -1258,11 +1305,78 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2ED84C-9FC2-405F-84D8-9D73CC8F3EC0}">
+  <dimension ref="B4:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C4" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C5" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D13" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A4:M122"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="M117" sqref="M117"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="R102" sqref="R102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1744,4 +1858,19 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0B269D-5720-489F-AA1B-02E6DA2AC0F1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/ue_streamablemanager.xlsx
+++ b/doc/ue_streamablemanager.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3D462E-AE03-455A-91F1-A15C209163CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7917FF-31C4-447C-82F6-C70DC5412D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="流程" sheetId="2" r:id="rId2"/>
     <sheet name="主线程调度" sheetId="4" r:id="rId3"/>
     <sheet name="示例代码" sheetId="3" r:id="rId4"/>
-    <sheet name="切换场景时资源不释放问题" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="152">
   <si>
     <t>FStreamableHandle</t>
   </si>
@@ -138,15 +137,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>如果指允许同步加载，则同步加载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>否则异步加载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？？？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -570,6 +561,38 @@
   </si>
   <si>
     <t>TICK调度过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建的话，先在内存中查找一下对象存在不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果存在就等于加载了，不用发起异步了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先内存查找一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一个FStreamableHandle内部都保存了其对应的所有资源Fstreamable，Fstreamable里面也保存了关联的所有FStreamableHandle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1可以从handle遍历所有的Fstreamable看看是否都完成了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2遍历Fstreamable的时候，如果完成，也需要通知其他Handle，看看其他handle身上的StreamablesLoading--之后是否为0，如果为0就调用Handle-&gt;CompleteLoad()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似引用技计数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -671,7 +694,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -693,6 +716,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -994,12 +1020,12 @@
     </row>
     <row r="6" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1015,7 +1041,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
@@ -1091,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A9:H50"/>
+  <dimension ref="A9:H56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1113,7 +1139,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1121,7 +1147,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1164,137 +1190,175 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="F17" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="F18" s="1" t="s">
+    <row r="18" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="4:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="E19" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="F20" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F21" s="1"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="2" t="s">
+    </row>
+    <row r="23" spans="4:8" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="G23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="F19" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="G20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" s="3" t="s">
+    <row r="24" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D31" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D32" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D33" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D34" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="B35" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E22" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="B29" s="4" t="s">
+      <c r="C35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="E36" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="2" t="s">
+      <c r="F36" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="E37" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="E30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F30" s="1" t="s">
+    <row r="38" spans="2:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="E38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="E31" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="E32" s="1" t="s">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
         <v>44</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F40" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E33" s="1" t="s">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>47</v>
+      </c>
+      <c r="F41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E43" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B56" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
         <v>54</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="34" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E34" t="s">
-        <v>46</v>
-      </c>
-      <c r="F34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E35" t="s">
-        <v>49</v>
-      </c>
-      <c r="F35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E36" t="s">
-        <v>48</v>
-      </c>
-      <c r="F36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E37" t="s">
-        <v>52</v>
-      </c>
-      <c r="F37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B50" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="D56" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1316,52 +1380,52 @@
   <sheetData>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C4" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C5" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D13" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1375,7 +1439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A4:M122"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="R102" sqref="R102"/>
     </sheetView>
   </sheetViews>
@@ -1389,58 +1453,58 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D9" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E13" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E14" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -1448,42 +1512,42 @@
         <v>2</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B20" s="7"/>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B21" s="7"/>
       <c r="D21" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D22" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D23" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D24" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E24" s="8"/>
     </row>
@@ -1516,361 +1580,346 @@
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E39" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E40" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="3:8" x14ac:dyDescent="0.2">
       <c r="F41" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="3:8" x14ac:dyDescent="0.2">
       <c r="F42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="3:8" x14ac:dyDescent="0.2">
       <c r="G43" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="3:8" x14ac:dyDescent="0.2">
       <c r="G44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="3:8" x14ac:dyDescent="0.2">
       <c r="G45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="3:8" x14ac:dyDescent="0.2">
       <c r="G46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="3:8" x14ac:dyDescent="0.2">
       <c r="H47" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="3:8" x14ac:dyDescent="0.2">
       <c r="G48" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G50" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G51" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G53" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G54" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="5:7" x14ac:dyDescent="0.2">
       <c r="F55" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E56" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E57" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B70" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C71" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C72" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C73" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C74" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C75" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C76" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C77" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C78" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C79" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C80" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C81" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C82" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C83" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C84" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C85" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C86" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C87" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C88" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C89" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C90" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C91" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B98" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C99" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C100" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C101" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C102" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C103" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C104" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C105" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C106" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C107" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C108" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C109" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C110" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C111" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C112" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C113" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="114" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C114" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="115" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C115" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="116" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C116" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="117" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C117" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="118" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C118" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="119" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C119" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="120" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C120" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="121" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C121" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="122" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C122" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0B269D-5720-489F-AA1B-02E6DA2AC0F1}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>